--- a/Test/Results/Error/ErrorEpsilon.xlsx
+++ b/Test/Results/Error/ErrorEpsilon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,79 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05368633469348602</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.03491326054414547</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.001790674434143843</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1386484713606348</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1026166105684154</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.003116495002942032</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.01271031043144124</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.1006008374094123</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.0004876297411089044</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.171166337348962</v>
+        <v>0.005912852279366901</v>
       </c>
     </row>
   </sheetData>
